--- a/docs/Mapping_casi_uso/cittadinanza/Citt_052.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_052.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -398,6 +398,9 @@
     <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
+    <t>evento.datiEventoCittadinanza.tipoDichiarante,in,(2,3)</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -405,6 +408,9 @@
   </si>
   <si>
     <t>evento.datiEventoCittadinanza.tipoDichiarante,in,(2,4)</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza.tipoDichiarante,in,(1,3)</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3040,7 +3046,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
@@ -3063,7 +3069,7 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
@@ -3086,7 +3092,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
@@ -3109,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115">
@@ -3132,7 +3138,7 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116">
@@ -3155,7 +3161,7 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117">
@@ -3178,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118">
@@ -3201,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119">
@@ -3224,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120">
@@ -3247,7 +3253,7 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121">
@@ -3270,7 +3276,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122">
@@ -3293,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123">
@@ -3316,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
@@ -3339,7 +3345,7 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125">
@@ -3362,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126">
@@ -3385,7 +3391,7 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127">
@@ -3408,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128">
@@ -3431,7 +3437,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
@@ -3454,7 +3460,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
@@ -3477,7 +3483,7 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
@@ -3500,7 +3506,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132">
@@ -3523,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133">
@@ -3546,7 +3552,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134">
@@ -3569,7 +3575,7 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135">
@@ -3592,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136">
@@ -3615,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137">
@@ -3638,7 +3644,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138">
@@ -3661,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139">
@@ -3684,7 +3690,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140">
@@ -3707,7 +3713,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141">
@@ -3730,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142">
@@ -3753,12 +3759,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>39</v>
@@ -3767,7 +3773,7 @@
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>41</v>
@@ -3776,12 +3782,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>43</v>
@@ -3790,7 +3796,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>44</v>
@@ -3799,12 +3805,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>45</v>
@@ -3813,7 +3819,7 @@
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>46</v>
@@ -3822,12 +3828,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>47</v>
@@ -3836,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>48</v>
@@ -3845,12 +3851,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>49</v>
@@ -3859,7 +3865,7 @@
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>50</v>
@@ -3868,12 +3874,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>51</v>
@@ -3882,7 +3888,7 @@
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>52</v>
@@ -3891,12 +3897,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>53</v>
@@ -3905,7 +3911,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>54</v>
@@ -3914,12 +3920,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>55</v>
@@ -3928,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>56</v>
@@ -3937,12 +3943,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>57</v>
@@ -3951,7 +3957,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>58</v>
@@ -3960,12 +3966,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>59</v>
@@ -3974,7 +3980,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>60</v>
@@ -3983,12 +3989,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>61</v>
@@ -3997,7 +4003,7 @@
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>62</v>
@@ -4006,12 +4012,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>63</v>
@@ -4020,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>64</v>
@@ -4029,12 +4035,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>65</v>
@@ -4043,7 +4049,7 @@
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>66</v>
@@ -4052,12 +4058,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>67</v>
@@ -4066,7 +4072,7 @@
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>68</v>
@@ -4075,12 +4081,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>69</v>
@@ -4089,7 +4095,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>70</v>
@@ -4098,12 +4104,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>71</v>
@@ -4112,7 +4118,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>72</v>
@@ -4121,12 +4127,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>73</v>
@@ -4135,7 +4141,7 @@
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>74</v>
@@ -4144,12 +4150,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>75</v>
@@ -4158,7 +4164,7 @@
         <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>76</v>
@@ -4167,12 +4173,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>77</v>
@@ -4181,7 +4187,7 @@
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>78</v>
@@ -4190,12 +4196,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>79</v>
@@ -4204,7 +4210,7 @@
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>80</v>
@@ -4213,12 +4219,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>81</v>
@@ -4227,7 +4233,7 @@
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>82</v>
@@ -4236,12 +4242,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>83</v>
@@ -4250,7 +4256,7 @@
         <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>84</v>
@@ -4259,12 +4265,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>85</v>
@@ -4273,7 +4279,7 @@
         <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>86</v>
@@ -4282,12 +4288,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>87</v>
@@ -4296,7 +4302,7 @@
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>88</v>
@@ -4305,12 +4311,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>89</v>
@@ -4319,7 +4325,7 @@
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>90</v>
@@ -4328,12 +4334,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>91</v>
@@ -4342,7 +4348,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>92</v>
@@ -4351,12 +4357,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>93</v>
@@ -4365,7 +4371,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>94</v>
@@ -4374,12 +4380,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>95</v>
@@ -4388,7 +4394,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>96</v>
@@ -4397,12 +4403,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>115</v>
@@ -4411,7 +4417,7 @@
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>116</v>
@@ -4420,12 +4426,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>117</v>
@@ -4434,7 +4440,7 @@
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>118</v>
@@ -4443,12 +4449,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>119</v>
@@ -4457,7 +4463,7 @@
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>120</v>
@@ -4466,12 +4472,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>121</v>
@@ -4480,7 +4486,7 @@
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>122</v>
@@ -4489,12 +4495,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>126</v>
@@ -4503,7 +4509,7 @@
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>127</v>
@@ -4512,12 +4518,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>39</v>
@@ -4526,7 +4532,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>41</v>
@@ -4535,12 +4541,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>43</v>
@@ -4549,7 +4555,7 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>44</v>
@@ -4558,12 +4564,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>45</v>
@@ -4572,7 +4578,7 @@
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>46</v>
@@ -4581,12 +4587,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>47</v>
@@ -4595,7 +4601,7 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>48</v>
@@ -4604,12 +4610,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>49</v>
@@ -4618,7 +4624,7 @@
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>50</v>
@@ -4627,12 +4633,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>51</v>
@@ -4641,7 +4647,7 @@
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>52</v>
@@ -4650,12 +4656,12 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>53</v>
@@ -4664,7 +4670,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>54</v>
@@ -4673,12 +4679,12 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>55</v>
@@ -4687,7 +4693,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>56</v>
@@ -4696,12 +4702,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>57</v>
@@ -4710,7 +4716,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>58</v>
@@ -4719,12 +4725,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>59</v>
@@ -4733,7 +4739,7 @@
         <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>60</v>
@@ -4742,12 +4748,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>61</v>
@@ -4756,7 +4762,7 @@
         <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>62</v>
@@ -4765,12 +4771,12 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>63</v>
@@ -4779,7 +4785,7 @@
         <v>14</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>64</v>
@@ -4788,12 +4794,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>65</v>
@@ -4802,7 +4808,7 @@
         <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>66</v>
@@ -4811,12 +4817,12 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>67</v>
@@ -4825,7 +4831,7 @@
         <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>68</v>
@@ -4834,12 +4840,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>69</v>
@@ -4848,7 +4854,7 @@
         <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>70</v>
@@ -4857,12 +4863,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>71</v>
@@ -4871,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>72</v>
@@ -4880,12 +4886,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>73</v>
@@ -4894,7 +4900,7 @@
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>74</v>
@@ -4903,12 +4909,12 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>75</v>
@@ -4917,7 +4923,7 @@
         <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>76</v>
@@ -4926,12 +4932,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>77</v>
@@ -4940,7 +4946,7 @@
         <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>78</v>
@@ -4949,12 +4955,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>79</v>
@@ -4963,7 +4969,7 @@
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>80</v>
@@ -4972,12 +4978,12 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>81</v>
@@ -4986,7 +4992,7 @@
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>82</v>
@@ -4995,12 +5001,12 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>83</v>
@@ -5009,7 +5015,7 @@
         <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>84</v>
@@ -5018,12 +5024,12 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>85</v>
@@ -5032,7 +5038,7 @@
         <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>86</v>
@@ -5041,12 +5047,12 @@
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>87</v>
@@ -5055,7 +5061,7 @@
         <v>14</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>88</v>
@@ -5064,12 +5070,12 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>89</v>
@@ -5078,7 +5084,7 @@
         <v>14</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>90</v>
@@ -5087,12 +5093,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>91</v>
@@ -5101,7 +5107,7 @@
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>92</v>
@@ -5110,12 +5116,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>93</v>
@@ -5124,7 +5130,7 @@
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>94</v>
@@ -5133,12 +5139,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>95</v>
@@ -5147,7 +5153,7 @@
         <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>96</v>
@@ -5156,12 +5162,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>115</v>
@@ -5170,7 +5176,7 @@
         <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>116</v>
@@ -5179,12 +5185,12 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>117</v>
@@ -5193,7 +5199,7 @@
         <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>118</v>
@@ -5202,12 +5208,12 @@
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>119</v>
@@ -5216,7 +5222,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>120</v>
@@ -5225,12 +5231,12 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>121</v>
@@ -5239,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>122</v>
@@ -5248,24 +5254,24 @@
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
